--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/11,25/24,11,25 ПОКОМ КИ Новороссийск/дв 24,11,25 нррсч пок ки от филиала.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/11,25/24,11,25 ПОКОМ КИ Новороссийск/дв 24,11,25 нррсч пок ки от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\заказы Краснодар\24,11,25 ПОКОМ КИ Новороссийск\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\11,25\24,11,25 ПОКОМ КИ Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA26F08-21BC-465C-89D5-DD2F82B7D5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA757A-BE81-4750-99E3-1240FB2F121A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="169">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -534,7 +534,10 @@
     <t>до машины</t>
   </si>
   <si>
-    <t>итого</t>
+    <t>заказ</t>
+  </si>
+  <si>
+    <t>27,11,</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1030,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1324,9 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="T4" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
